--- a/export/bom/bom.xlsx
+++ b/export/bom/bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Row</t>
   </si>
@@ -56,6 +56,42 @@
     <t>RaspberryPiPico-THT-Dev</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>D1 D2</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED_D3.0mm</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>PinSocket_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>R1 R2</t>
+  </si>
+  <si>
+    <t>150 Ω</t>
+  </si>
+  <si>
+    <t>R_Axial_DIN0204_L3.6mm_D1.6mm_P5.08mm_Horizontal</t>
+  </si>
+  <si>
     <t>KiBot variants example</t>
   </si>
   <si>
@@ -77,7 +113,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-28_01-22-28</t>
+    <t>2023-12-14_08-57-54</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -146,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +213,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -211,6 +265,15 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -574,12 +637,12 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -588,55 +651,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -644,16 +707,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -700,6 +763,75 @@
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -725,17 +857,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
